--- a/pred_ohlcv/54_21/2019-10-31 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FNB ohlcv.xlsx
@@ -1588,7 +1588,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>452987.7212349082</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>237056.3928349083</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>239134.1480349083</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-848437.2508367681</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-898864.5974367681</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-369840.0541367681</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1163453.065236768</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1188432.409036768</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-60930.28063676821</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-718124.4786367682</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1063472.959436768</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-388073.0407367682</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-734279.8781367682</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-466237.9036367683</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-946872.9710367683</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-886408.1488367682</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2579002.234336768</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2566279.693636768</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2549055.076636768</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2805921.435336768</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2898679.842436769</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2898699.818336769</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3364948.543136769</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3364893.251036768</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-725123.8098299478</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1351597.697529948</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-963157.8901299478</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1845004.144229948</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2152415.943629948</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1675163.983729948</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1955035.480929948</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1785944.941429948</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-1637491.772529948</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2362267.236815662</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-7491613.787601375</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-7427387.47215592</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-7630622.07045592</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-8619085.981006382</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-8669105.599006383</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-15279008.98359339</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-15263323.83069339</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-13607587.56905257</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-13246420.42435257</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-13246420.42435257</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-13473785.27646677</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-13473131.37996677</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-13498999.09436677</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-13499001.06686677</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-13392982.36876677</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-13393009.15596677</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-13519148.15406677</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-13519158.16606677</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-13665603.17186677</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-13665603.17186677</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-14553953.07846677</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-14553812.32346677</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-14614063.28726677</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-15014109.14936677</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-15955129.43196677</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16149868.96216677</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-15908021.29296677</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-15828765.66426677</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-15829117.93256677</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-13829018.2342389</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-12966629.5970256</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-12966416.1147256</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-12956268.3160256</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-12956256.3160256</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-13541213.1271256</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-13473307.5712256</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-13751283.1692256</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-13750506.1692256</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-13780576.5785256</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-14016268.91877211</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-14231709.97757212</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FNB ohlcv.xlsx
@@ -1588,7 +1588,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>382314.3132574513</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>1209253.232257451</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>506756.0052574514</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>707410.6754574515</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>452987.7212349082</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>446056.8354349082</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>625598.1144349083</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>258454.9826349083</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>443908.0699349083</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>217447.2230349083</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>260166.9180349083</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>237056.3928349083</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>239134.1480349083</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-848437.2508367681</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-898864.5974367681</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-369840.0541367681</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1163453.065236768</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1188432.409036768</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1050416.692836768</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-60930.28063676821</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-77339.1080367682</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-718124.4786367682</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1063472.959436768</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-679086.6076367681</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-388073.0407367682</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-734279.8781367682</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-361366.0943367683</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-124668.0379367683</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-466237.9036367683</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-995778.2717367683</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-946872.9710367683</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-886408.1488367682</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2579002.234336768</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2482944.376136768</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2566279.693636768</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-2549055.076636768</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2805921.435336768</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-2917950.167936768</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-2898679.842436769</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-2898699.818336769</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3364948.543136769</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3364893.251036768</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-725123.8098299478</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-1351597.697529948</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-963157.8901299478</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-1845004.144229948</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2152415.943629948</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-1675163.983729948</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-1676178.133929948</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-1891963.519729948</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-1955035.480929948</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-1785944.941429948</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1914152.925929948</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-1916572.835929948</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-1885468.505429948</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2362267.236815662</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-7491613.787601375</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-7427387.47215592</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-7630622.07045592</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-8619085.981006382</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-8669105.599006383</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-15279008.98359339</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-15263323.83069339</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-14830346.98409339</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-13246420.42435257</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-13473785.27646677</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-13473017.15886677</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-13473131.37996677</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-13498999.09436677</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-13498979.09436677</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-13499001.06686677</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-13547379.70446677</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-13519148.05376677</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-14558903.33496677</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-14553812.32346677</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-15955129.43196677</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-16149868.96216677</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-15908021.29296677</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-15828765.66426677</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-15828787.63676677</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-15829117.93256677</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-15316360.15316677</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-13829018.2342389</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-12966629.5970256</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-12966416.1147256</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-12956268.3160256</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-12956256.3160256</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-13541213.1271256</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-13541192.1271256</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-13530303.4432256</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-13473307.5712256</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-13751283.1692256</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-13750506.1692256</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-13780576.5785256</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-13858268.91877211</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-14016268.91877211</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-14231709.97757212</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-14242439.34097211</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
